--- a/resultat_test.xlsx
+++ b/resultat_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l3ics\SDI\PDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l3ics\OneDrive\Bureau\sign_language_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C45FC4-ADC2-4625-B1EC-3DEAADF98F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F63B109-0C8D-4798-ACE5-7F7A988174C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>idTest</t>
   </si>
@@ -135,13 +135,70 @@
   </si>
   <si>
     <t>1.3860</t>
+  </si>
+  <si>
+    <t>3min 53</t>
+  </si>
+  <si>
+    <t>9.4374e-08</t>
+  </si>
+  <si>
+    <t>problème entre iloveu et hello</t>
+  </si>
+  <si>
+    <t>action_recognition_6.h5</t>
+  </si>
+  <si>
+    <t>5min 16</t>
+  </si>
+  <si>
+    <t>2.2538e-07</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>idem</t>
+  </si>
+  <si>
+    <t>même problème</t>
+  </si>
+  <si>
+    <t>beaucoup mieux</t>
+  </si>
+  <si>
+    <t>TRSFM1</t>
+  </si>
+  <si>
+    <t>9min51</t>
+  </si>
+  <si>
+    <t>3.2907e-08</t>
+  </si>
+  <si>
+    <t>31min46</t>
+  </si>
+  <si>
+    <t>120/30</t>
+  </si>
+  <si>
+    <t>4.3919e-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1076 </t>
+  </si>
+  <si>
+    <t>0.9709</t>
+  </si>
+  <si>
+    <t>25min40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,13 +212,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -176,8 +257,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,24 +545,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="I5" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="9.7265625" customWidth="1"/>
     <col min="8" max="8" width="26.6328125" customWidth="1"/>
-    <col min="9" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" customWidth="1"/>
-    <col min="12" max="12" width="18.1796875" customWidth="1"/>
-    <col min="13" max="13" width="32.1796875" customWidth="1"/>
-    <col min="14" max="14" width="12.453125" customWidth="1"/>
+    <col min="9" max="11" width="24" customWidth="1"/>
+    <col min="12" max="12" width="10.453125" customWidth="1"/>
+    <col min="13" max="13" width="18.1796875" customWidth="1"/>
+    <col min="14" max="14" width="32.1796875" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,22 +591,25 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -548,8 +638,11 @@
       <c r="I2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -578,8 +671,11 @@
       <c r="I3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -608,23 +704,26 @@
       <c r="I4">
         <v>0.5</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>14</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -653,17 +752,20 @@
       <c r="I5">
         <v>0.5</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J5">
+        <v>0.5</v>
+      </c>
+      <c r="L5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>12</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -692,14 +794,17 @@
       <c r="I6">
         <v>0.5</v>
       </c>
-      <c r="L6">
-        <v>0.5</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -728,17 +833,20 @@
       <c r="I7">
         <v>0.5</v>
       </c>
-      <c r="L7">
+      <c r="J7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
         <v>0.75</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>16</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -767,20 +875,23 @@
       <c r="I8">
         <v>0.5</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J8">
+        <v>0.5</v>
+      </c>
+      <c r="L8" t="s">
         <v>19</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>20</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -809,20 +920,23 @@
       <c r="I9">
         <v>0.5</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="s">
         <v>26</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>23</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -850,62 +964,326 @@
       <c r="I10">
         <v>0.5</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="s">
         <v>30</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>32</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>31</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="3"/>
+      <c r="J11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="3"/>
+      <c r="J12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="3"/>
+      <c r="J13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="3"/>
+      <c r="J14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="3"/>
+      <c r="J15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>86</v>
+      </c>
+      <c r="D16">
+        <v>90</v>
+      </c>
+      <c r="E16">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>700</v>
+      </c>
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <v>0.5</v>
+      </c>
+      <c r="J16">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>86</v>
+      </c>
+      <c r="D17">
+        <v>120</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>700</v>
+      </c>
+      <c r="H17">
+        <v>0.5</v>
+      </c>
+      <c r="I17">
+        <v>0.5</v>
+      </c>
+      <c r="J17">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>86</v>
+      </c>
+      <c r="D18">
+        <v>120</v>
+      </c>
+      <c r="E18">
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>700</v>
+      </c>
+      <c r="H18">
+        <v>0.5</v>
+      </c>
+      <c r="I18">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="K18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <v>86</v>
+      </c>
+      <c r="D19">
+        <v>120</v>
+      </c>
+      <c r="E19">
+        <v>25</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>700</v>
+      </c>
+      <c r="H19">
+        <v>0.5</v>
+      </c>
+      <c r="I19">
+        <v>0.5</v>
+      </c>
+      <c r="J19">
+        <v>0.9</v>
+      </c>
+      <c r="K19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>554</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>500</v>
+      </c>
+      <c r="H20">
+        <v>0.5</v>
+      </c>
+      <c r="I20">
+        <v>0.5</v>
+      </c>
+      <c r="J20">
+        <v>0.9</v>
+      </c>
+      <c r="K20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>554</v>
+      </c>
+      <c r="D21">
+        <v>120</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>250</v>
+      </c>
+      <c r="H21">
+        <v>0.5</v>
+      </c>
+      <c r="I21">
+        <v>0.5</v>
+      </c>
+      <c r="J21">
+        <v>0.9</v>
+      </c>
+      <c r="K21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
